--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/sql_dql_cases3.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/sql_dql_cases3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,44 +119,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dqlc3_005</t>
+  </si>
+  <si>
+    <t>dqlc3_006</t>
+  </si>
+  <si>
+    <t>explain scan输出 - 主键int型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain scan输出 - 主键varchar型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain scan输出 - 主键date型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain getByKey输出 - 主键int型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain getByKey输出 - 主键varchar型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain getByKey输出 - 主键date型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain-scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc3_007</t>
+  </si>
+  <si>
+    <t>dqlc3_008</t>
+  </si>
+  <si>
     <t>dqlc3_004</t>
-  </si>
-  <si>
-    <t>dqlc3_005</t>
-  </si>
-  <si>
-    <t>dqlc3_006</t>
-  </si>
-  <si>
-    <t>explain scan输出 - 主键int型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain scan输出 - 主键varchar型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain scan输出 - 主键date型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain getByKey输出 - 主键int型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain getByKey输出 - 主键varchar型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain getByKey输出 - 主键date型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explain-scan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explain-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $schema17 where age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema17 where name='zhangsan'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv_containsAll</t>
+  </si>
+  <si>
+    <t>csv_containsAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_007.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_008.csv</t>
+  </si>
+  <si>
+    <t>getByKey输出 - 非主键int型查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getByKey输出 - 非主键varchar型查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,10 +625,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -614,10 +651,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>19</v>
@@ -640,10 +677,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -660,16 +697,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -686,16 +723,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -712,16 +749,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -734,6 +771,64 @@
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/sql_dql_cases3.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/sql_dql_cases3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="147">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,124 +76,478 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dqlc3_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc3_002</t>
+  </si>
+  <si>
+    <t>dqlc3_003</t>
+  </si>
+  <si>
+    <t>qc3_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc3_value2</t>
+  </si>
+  <si>
+    <t>explain plan for select * from $schema31 where c_custid='a24069f087e147b9a0c0ea60e149783b'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc3_value3</t>
+  </si>
+  <si>
+    <t>dqlc3_005</t>
+  </si>
+  <si>
+    <t>dqlc3_006</t>
+  </si>
+  <si>
+    <t>explain scan输出 - 主键int型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain scan输出 - 主键varchar型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain scan输出 - 主键date型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain getByKey输出 - 主键int型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain getByKey输出 - 主键varchar型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain getByKey输出 - 主键date型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain-scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain-key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc3_007</t>
+  </si>
+  <si>
+    <t>dqlc3_008</t>
+  </si>
+  <si>
+    <t>dqlc3_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $schema17 where age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema17 where name='zhangsan'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv_containsAll</t>
+  </si>
+  <si>
+    <t>csv_containsAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_007.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_008.csv</t>
+  </si>
+  <si>
+    <t>getByKey输出 - 非主键int型查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getByKey输出 - 非主键varchar型查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain_validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema17 where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema31 where c_custid='a24069f087e147b9a0c0ea60e149783b'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select * from $schema21 where birthday='2022-07-07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema21 where birthday='2022-07-07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema17 where id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select * from $schema21 where birthday='2022-07-07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema21 where birthday='2022-07-07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select age from $schema17 where age=18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select name from $schema17 where name='zhangsan'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_001.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_002.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_003.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_004.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_005.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_006.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_001_explain.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_003_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_004_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_005_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_006_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_007_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_008_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_002_explain.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv_equals</t>
+  </si>
+  <si>
+    <t>select * from $schema31 where c_custid='a24069f087e147b9a0c0ea60e149783b'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc3_009</t>
+  </si>
+  <si>
+    <t>dqlc3_010</t>
+  </si>
+  <si>
+    <t>dqlc3_011</t>
+  </si>
+  <si>
+    <t>dqlc3_012</t>
+  </si>
+  <si>
+    <t>dqlc3_013</t>
+  </si>
+  <si>
+    <t>dqlc3_014</t>
+  </si>
+  <si>
+    <t>dqlc3_015</t>
+  </si>
+  <si>
+    <t>dqlc3_016</t>
+  </si>
+  <si>
+    <t>dqlc3_017</t>
+  </si>
+  <si>
+    <t>dqlc3_018</t>
+  </si>
+  <si>
+    <t>dqlc3_019</t>
+  </si>
+  <si>
+    <t>dqlc3_020</t>
+  </si>
+  <si>
+    <t>dqlc3_021</t>
+  </si>
+  <si>
+    <t>整型数字计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长整型数字计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型数字计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期值计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间值计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间值计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔值计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期函数now()计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期函数CurDate()计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期函数CurTime()计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期函数Current_Timestamp()计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期函数unix_timestamp()计算下推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryConstant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_009.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_010.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_011.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_012.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_013.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_014.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_015.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_016.csv</t>
+  </si>
+  <si>
     <t>justExec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqlc3_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqlc3_002</t>
-  </si>
-  <si>
-    <t>dqlc3_003</t>
-  </si>
-  <si>
-    <t>qc3_value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc3_value2</t>
-  </si>
-  <si>
-    <t>explain plan for select * from $schema31 where c_custid='a24069f087e147b9a0c0ea60e149783b'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>justExec</t>
-  </si>
-  <si>
-    <t>schema21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc3_value3</t>
-  </si>
-  <si>
-    <t>explain plan for select * from $schema21 where birthday='2022-07-07'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqlc3_005</t>
-  </si>
-  <si>
-    <t>dqlc3_006</t>
-  </si>
-  <si>
-    <t>explain scan输出 - 主键int型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain scan输出 - 主键varchar型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain scan输出 - 主键date型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain getByKey输出 - 主键int型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain getByKey输出 - 主键varchar型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain getByKey输出 - 主键date型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explain-scan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explain-key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqlc3_007</t>
-  </si>
-  <si>
-    <t>dqlc3_008</t>
-  </si>
-  <si>
-    <t>dqlc3_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select age from $schema17 where age=18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select name from $schema17 where name='zhangsan'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csv_containsAll</t>
-  </si>
-  <si>
-    <t>csv_containsAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_007.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_008.csv</t>
-  </si>
-  <si>
-    <t>getByKey输出 - 非主键int型查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getByKey输出 - 非主键varchar型查询</t>
+  </si>
+  <si>
+    <t>select 13898763471 from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 1234.5678 from $schema17 limit 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 'DingoTest123' from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select '19:00:00' from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select '2020-01-20 10:30:00' from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select true from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select Current_Timestamp() from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select now() from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select CurDate() from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select CurTime() from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select unix_timestamp() from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select 10 from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select 13898763471 from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select 1234.5678 from $schema17 limit 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select 'DingoTest123' from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select '2023-12-01' from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select '19:00:00' from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select '2020-01-20 10:30:00' from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select true from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select now() from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select CurDate() from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select CurTime() from $schema17 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select Current_Timestamp() from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain plan for select unix_timestamp() from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_009_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_010_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_011_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_012_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_013_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_014_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_015_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_016_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_017_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_018_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_019_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_020_explain.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup3/expectedresult/queryc3_021_explain.csv</t>
+  </si>
+  <si>
+    <t>select 10 as ca from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select '2023-12-01' as bt from $schema17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,10 +933,13 @@
     <col min="9" max="9" width="53.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,219 +973,797 @@
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +1773,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 N2:N1048576">
       <formula1>"csv_equals,csv_containsAll,string_equals,double_equals,assertNull,justExec,SQLException"</formula1>
     </dataValidation>
   </dataValidations>
